--- a/ehcore/src/main/resources/excels/property/communityStatistic.xlsx
+++ b/ehcore/src/main/resources/excels/property/communityStatistic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="6900"/>
+    <workbookView windowWidth="28665" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>项目信息汇总表</t>
   </si>
@@ -42,7 +42,13 @@
     <t>已出租房源数</t>
   </si>
   <si>
-    <t>已占用房源数</t>
+    <t>已预定房源数</t>
+  </si>
+  <si>
+    <t>待签约房源数</t>
+  </si>
+  <si>
+    <t>待接房房源数</t>
   </si>
   <si>
     <t>自用房源数</t>
@@ -86,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -122,6 +128,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -129,7 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,7 +171,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,18 +192,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,77 +225,39 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,25 +286,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,25 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,127 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +491,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,8 +537,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,15 +584,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -592,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,133 +610,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:T1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1105,17 +1111,17 @@
     <col min="5" max="5" width="9.56666666666667" customWidth="1"/>
     <col min="6" max="6" width="9.38333333333333" customWidth="1"/>
     <col min="7" max="7" width="10.8583333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.5083333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.0833333333333" customWidth="1"/>
-    <col min="10" max="10" width="9.65" customWidth="1"/>
-    <col min="11" max="11" width="10.425" customWidth="1"/>
-    <col min="13" max="13" width="9.825" customWidth="1"/>
-    <col min="16" max="16" width="12.8333333333333" customWidth="1"/>
-    <col min="17" max="17" width="9.21666666666667" customWidth="1"/>
-    <col min="19" max="19" width="9.73333333333333" customWidth="1"/>
+    <col min="8" max="10" width="10.5083333333333" customWidth="1"/>
+    <col min="11" max="11" width="10.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="9.65" customWidth="1"/>
+    <col min="13" max="13" width="10.425" customWidth="1"/>
+    <col min="15" max="15" width="9.825" customWidth="1"/>
+    <col min="18" max="18" width="12.8333333333333" customWidth="1"/>
+    <col min="19" max="19" width="9.21666666666667" customWidth="1"/>
+    <col min="21" max="21" width="9.73333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:20">
+    <row r="1" ht="18.75" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1138,8 +1144,10 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
+    <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1200,8 +1208,14 @@
       <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="U2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="11.25" spans="1:20">
+    <row r="3" s="1" customFormat="1" ht="11.25" spans="1:22">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1222,10 +1236,12 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:V1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
